--- a/results/20250402/evaluation_scene_noisy_0.0.xlsx
+++ b/results/20250402/evaluation_scene_noisy_0.0.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.3924</v>
+        <v>0.84833</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02215</v>
+        <v>0.00674</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.30455</v>
+        <v>0.49688</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02465</v>
+        <v>0.01466</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.3901</v>
+        <v>0.84841</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02059</v>
+        <v>0.00641</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.30663</v>
+        <v>0.5081</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02273</v>
+        <v>0.01512</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.39198</v>
+        <v>0.84841</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02168</v>
+        <v>0.00656</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.30372</v>
+        <v>0.49689</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02307</v>
+        <v>0.01501</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.38993</v>
+        <v>0.8483000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02035</v>
+        <v>0.00729</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.30704</v>
+        <v>0.50976</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02202</v>
+        <v>0.01605</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.39819</v>
+        <v>0.8476900000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02064</v>
+        <v>0.007900000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.31285</v>
+        <v>0.48858</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02041</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.39683</v>
+        <v>0.84861</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02028</v>
+        <v>0.007860000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.31327</v>
+        <v>0.50021</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02014</v>
+        <v>0.01463</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.39907</v>
+        <v>0.84739</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02101</v>
+        <v>0.007849999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.3141</v>
+        <v>0.48858</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0204</v>
+        <v>0.0156</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.39835</v>
+        <v>0.84839</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02146</v>
+        <v>0.00749</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.31451</v>
+        <v>0.50104</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02018</v>
+        <v>0.01381</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.32608</v>
+        <v>0.86019</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01058</v>
+        <v>0.009310000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.24098</v>
+        <v>0.53346</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02054</v>
+        <v>0.02734</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.31877</v>
+        <v>0.86229</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01389</v>
+        <v>0.01015</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.24015</v>
+        <v>0.57167</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01807</v>
+        <v>0.02315</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.32791</v>
+        <v>0.85983</v>
       </c>
       <c r="I70" t="n">
-        <v>0.009730000000000001</v>
+        <v>0.00974</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.24181</v>
+        <v>0.53263</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02065</v>
+        <v>0.02833</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.31996</v>
+        <v>0.86321</v>
       </c>
       <c r="I72" t="n">
-        <v>0.01515</v>
+        <v>0.01097</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.24139</v>
+        <v>0.58165</v>
       </c>
       <c r="I73" t="n">
-        <v>0.017</v>
+        <v>0.02677</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.3252</v>
+        <v>0.86077</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01484</v>
+        <v>0.00876</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.23974</v>
+        <v>0.5243100000000001</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01837</v>
+        <v>0.02549</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.31977</v>
+        <v>0.86351</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01699</v>
+        <v>0.00851</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.24056</v>
+        <v>0.57001</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01712</v>
+        <v>0.02136</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.32531</v>
+        <v>0.86069</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01493</v>
+        <v>0.008789999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.23932</v>
+        <v>0.5243100000000001</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01883</v>
+        <v>0.02549</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.31938</v>
+        <v>0.8647</v>
       </c>
       <c r="I80" t="n">
-        <v>0.01676</v>
+        <v>0.009469999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.2414</v>
+        <v>0.57665</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01661</v>
+        <v>0.02348</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.40693</v>
+        <v>0.85099</v>
       </c>
       <c r="I106" t="n">
-        <v>0.01052</v>
+        <v>0.00618</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.31617</v>
+        <v>0.50644</v>
       </c>
       <c r="I107" t="n">
-        <v>0.02387</v>
+        <v>0.01481</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.40489</v>
+        <v>0.85038</v>
       </c>
       <c r="I108" t="n">
-        <v>0.01388</v>
+        <v>0.00678</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.32033</v>
+        <v>0.511</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02461</v>
+        <v>0.01725</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.4079</v>
+        <v>0.85115</v>
       </c>
       <c r="I110" t="n">
-        <v>0.01258</v>
+        <v>0.00614</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.31659</v>
+        <v>0.50436</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0257</v>
+        <v>0.01478</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.40525</v>
+        <v>0.8501300000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01406</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.32033</v>
+        <v>0.51059</v>
       </c>
       <c r="I113" t="n">
-        <v>0.02538</v>
+        <v>0.01501</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.41173</v>
+        <v>0.85002</v>
       </c>
       <c r="I114" t="n">
-        <v>0.01021</v>
+        <v>0.00647</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.32033</v>
+        <v>0.48691</v>
       </c>
       <c r="I115" t="n">
-        <v>0.01441</v>
+        <v>0.01581</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.41048</v>
+        <v>0.85024</v>
       </c>
       <c r="I116" t="n">
-        <v>0.01102</v>
+        <v>0.00708</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.32033</v>
+        <v>0.49522</v>
       </c>
       <c r="I117" t="n">
-        <v>0.01417</v>
+        <v>0.01608</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.412</v>
+        <v>0.84996</v>
       </c>
       <c r="I118" t="n">
-        <v>0.01061</v>
+        <v>0.00639</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.32157</v>
+        <v>0.48691</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01564</v>
+        <v>0.01581</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.4109</v>
+        <v>0.8502999999999999</v>
       </c>
       <c r="I120" t="n">
-        <v>0.01152</v>
+        <v>0.00667</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.32157</v>
+        <v>0.49563</v>
       </c>
       <c r="I121" t="n">
-        <v>0.01525</v>
+        <v>0.01532</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.3129</v>
+        <v>0.87102</v>
       </c>
       <c r="I146" t="n">
-        <v>0.01188</v>
+        <v>0.00625</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.23142</v>
+        <v>0.57458</v>
       </c>
       <c r="I147" t="n">
-        <v>0.0141</v>
+        <v>0.01596</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.30788</v>
+        <v>0.87126</v>
       </c>
       <c r="I148" t="n">
-        <v>0.01215</v>
+        <v>0.00662</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.22726</v>
+        <v>0.59701</v>
       </c>
       <c r="I149" t="n">
-        <v>0.01487</v>
+        <v>0.01689</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.31273</v>
+        <v>0.87115</v>
       </c>
       <c r="I150" t="n">
-        <v>0.01169</v>
+        <v>0.00637</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.231</v>
+        <v>0.57458</v>
       </c>
       <c r="I151" t="n">
-        <v>0.01339</v>
+        <v>0.01596</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.30675</v>
+        <v>0.87185</v>
       </c>
       <c r="I152" t="n">
-        <v>0.01096</v>
+        <v>0.008449999999999999</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.22643</v>
+        <v>0.6049099999999999</v>
       </c>
       <c r="I153" t="n">
-        <v>0.01411</v>
+        <v>0.01756</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.31528</v>
+        <v>0.87066</v>
       </c>
       <c r="I154" t="n">
-        <v>0.01059</v>
+        <v>0.00602</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.23433</v>
+        <v>0.55505</v>
       </c>
       <c r="I155" t="n">
-        <v>0.01491</v>
+        <v>0.01426</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.31143</v>
+        <v>0.87185</v>
       </c>
       <c r="I156" t="n">
-        <v>0.01253</v>
+        <v>0.00719</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.23184</v>
+        <v>0.58372</v>
       </c>
       <c r="I157" t="n">
-        <v>0.01561</v>
+        <v>0.01899</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.3152</v>
+        <v>0.87063</v>
       </c>
       <c r="I158" t="n">
-        <v>0.01062</v>
+        <v>0.00615</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.23475</v>
+        <v>0.55505</v>
       </c>
       <c r="I159" t="n">
-        <v>0.01489</v>
+        <v>0.01426</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.31099</v>
+        <v>0.87171</v>
       </c>
       <c r="I160" t="n">
-        <v>0.01133</v>
+        <v>0.008630000000000001</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.23225</v>
+        <v>0.58787</v>
       </c>
       <c r="I161" t="n">
-        <v>0.01472</v>
+        <v>0.02063</v>
       </c>
     </row>
   </sheetData>
